--- a/verslag/Tabellen en grafieken.xlsx
+++ b/verslag/Tabellen en grafieken.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\study\sevo\verslag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7A0AC6C-5898-4D44-AE08-B8889FCBA30D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B1C60DF5-5B7A-49AA-9E4A-D1EBE8B85768}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="8310" activeTab="1" xr2:uid="{31142F79-084B-4CB1-B9B1-3FDBCF0D0407}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18540" windowHeight="8310" activeTab="2" xr2:uid="{31142F79-084B-4CB1-B9B1-3FDBCF0D0407}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Aantal methodes</t>
   </si>
@@ -72,6 +73,36 @@
   </si>
   <si>
     <t>source code properties</t>
+  </si>
+  <si>
+    <t>Unitsize</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>6-15</t>
+  </si>
+  <si>
+    <t>Risk evaluation</t>
+  </si>
+  <si>
+    <t>small units</t>
+  </si>
+  <si>
+    <t>medium sized units</t>
+  </si>
+  <si>
+    <t>16-25</t>
+  </si>
+  <si>
+    <t>large units</t>
+  </si>
+  <si>
+    <t>very large units</t>
+  </si>
+  <si>
+    <t>&gt; 25</t>
   </si>
 </sst>
 </file>
@@ -122,14 +153,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -137,6 +162,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1780,7 +1812,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B12" si="0">A3*(A3-1) / 2</f>
+        <f t="shared" ref="B3:B11" si="0">A3*(A3-1) / 2</f>
         <v>1</v>
       </c>
       <c r="C3">
@@ -1788,11 +1820,11 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <f>B3*6</f>
+        <f t="shared" ref="D3:D11" si="2">B3*6</f>
         <v>6</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E11" si="2">(D3*100)/C3</f>
+        <f t="shared" ref="E3:E11" si="3">(D3*100)/C3</f>
         <v>50</v>
       </c>
     </row>
@@ -1809,11 +1841,11 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <f>B4*6</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="E4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -1830,11 +1862,11 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <f>B5*6</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
     </row>
@@ -1851,11 +1883,11 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <f>B6*6</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
@@ -1872,11 +1904,11 @@
         <v>36</v>
       </c>
       <c r="D7">
-        <f>B7*6</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -1893,11 +1925,11 @@
         <v>42</v>
       </c>
       <c r="D8">
-        <f>B8*6</f>
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
     </row>
@@ -1914,11 +1946,11 @@
         <v>48</v>
       </c>
       <c r="D9">
-        <f>B9*6</f>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>350</v>
       </c>
     </row>
@@ -1935,11 +1967,11 @@
         <v>54</v>
       </c>
       <c r="D10">
-        <f>B10*6</f>
+        <f t="shared" si="2"/>
         <v>216</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
     </row>
@@ -1956,11 +1988,11 @@
         <v>60</v>
       </c>
       <c r="D11">
-        <f>B11*6</f>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>450</v>
       </c>
     </row>
@@ -1974,7 +2006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950005A3-76AD-4D20-8278-911384222AE4}">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1985,94 +2017,94 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+      <c r="B9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2082,4 +2114,66 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4614FA96-4EEE-45BE-948C-C904DD7FD400}">
+  <dimension ref="C2:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C4" twoDigitTextYear="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/verslag/Tabellen en grafieken.xlsx
+++ b/verslag/Tabellen en grafieken.xlsx
@@ -8,16 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\study\sevo\verslag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B1C60DF5-5B7A-49AA-9E4A-D1EBE8B85768}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DA67E898-76A4-46F6-AF6A-6AD15B579DBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18540" windowHeight="8310" activeTab="2" xr2:uid="{31142F79-084B-4CB1-B9B1-3FDBCF0D0407}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="8310" activeTab="3" xr2:uid="{31142F79-084B-4CB1-B9B1-3FDBCF0D0407}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Aantal methodes</t>
   </si>
@@ -104,12 +109,43 @@
   <si>
     <t>&gt; 25</t>
   </si>
+  <si>
+    <t>aantal regels</t>
+  </si>
+  <si>
+    <t>aantal units</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of aantal units</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,10 +186,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -162,18 +199,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -864,7 +915,882 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Tabellen en grafieken.xlsx]Sheet5!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Verdeling unitsize</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$4:$A$83</c:f>
+              <c:strCache>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>358</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$4:$B$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EAE5-4715-AB75-12D962C8F59B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1387285072"/>
+        <c:axId val="1380680528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1387285072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1380680528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1380680528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1387285072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1420,6 +2346,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1459,6 +2888,917 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253C943C-7639-467E-AB45-4361A4A205AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Ewoud Westerbaan" refreshedDate="43450.764426388887" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="79" xr:uid="{EB787E7E-7F5A-415F-A864-4E3D3C055025}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="aantal regels" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="358" count="79">
+        <n v="48"/>
+        <n v="186"/>
+        <n v="45"/>
+        <n v="30"/>
+        <n v="29"/>
+        <n v="35"/>
+        <n v="10"/>
+        <n v="60"/>
+        <n v="16"/>
+        <n v="5"/>
+        <n v="8"/>
+        <n v="7"/>
+        <n v="64"/>
+        <n v="33"/>
+        <n v="1"/>
+        <n v="39"/>
+        <n v="3"/>
+        <n v="37"/>
+        <n v="58"/>
+        <n v="13"/>
+        <n v="55"/>
+        <n v="40"/>
+        <n v="41"/>
+        <n v="31"/>
+        <n v="28"/>
+        <n v="86"/>
+        <n v="14"/>
+        <n v="112"/>
+        <n v="358"/>
+        <n v="52"/>
+        <n v="151"/>
+        <n v="9"/>
+        <n v="38"/>
+        <n v="27"/>
+        <n v="81"/>
+        <n v="20"/>
+        <n v="51"/>
+        <n v="2"/>
+        <n v="68"/>
+        <n v="17"/>
+        <n v="182"/>
+        <n v="4"/>
+        <n v="34"/>
+        <n v="11"/>
+        <n v="61"/>
+        <n v="92"/>
+        <n v="6"/>
+        <n v="63"/>
+        <n v="67"/>
+        <n v="32"/>
+        <n v="21"/>
+        <n v="107"/>
+        <n v="57"/>
+        <n v="19"/>
+        <n v="26"/>
+        <n v="59"/>
+        <n v="105"/>
+        <n v="23"/>
+        <n v="46"/>
+        <n v="69"/>
+        <n v="44"/>
+        <n v="24"/>
+        <n v="54"/>
+        <n v="114"/>
+        <n v="12"/>
+        <n v="287"/>
+        <n v="15"/>
+        <n v="53"/>
+        <n v="47"/>
+        <n v="18"/>
+        <n v="0"/>
+        <n v="56"/>
+        <n v="217"/>
+        <n v="49"/>
+        <n v="36"/>
+        <n v="25"/>
+        <n v="149"/>
+        <n v="22"/>
+        <n v="97"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="aantal units" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1143" count="28">
+        <n v="2"/>
+        <n v="1"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="6"/>
+        <n v="29"/>
+        <n v="17"/>
+        <n v="83"/>
+        <n v="55"/>
+        <n v="82"/>
+        <n v="5"/>
+        <n v="1143"/>
+        <n v="152"/>
+        <n v="18"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="31"/>
+        <n v="261"/>
+        <n v="16"/>
+        <n v="105"/>
+        <n v="24"/>
+        <n v="54"/>
+        <n v="15"/>
+        <n v="9"/>
+        <n v="26"/>
+        <n v="27"/>
+        <n v="112"/>
+        <n v="10"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="79">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F30583E-30C7-4229-AA28-E2B99DDB6611}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="80">
+        <item x="70"/>
+        <item x="14"/>
+        <item x="37"/>
+        <item x="16"/>
+        <item x="41"/>
+        <item x="9"/>
+        <item x="46"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="31"/>
+        <item x="6"/>
+        <item x="43"/>
+        <item x="64"/>
+        <item x="19"/>
+        <item x="26"/>
+        <item x="66"/>
+        <item x="8"/>
+        <item x="39"/>
+        <item x="69"/>
+        <item x="53"/>
+        <item x="35"/>
+        <item x="50"/>
+        <item x="77"/>
+        <item x="57"/>
+        <item x="61"/>
+        <item x="75"/>
+        <item x="54"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="23"/>
+        <item x="49"/>
+        <item x="13"/>
+        <item x="42"/>
+        <item x="5"/>
+        <item x="74"/>
+        <item x="17"/>
+        <item x="32"/>
+        <item x="15"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="60"/>
+        <item x="2"/>
+        <item x="58"/>
+        <item x="68"/>
+        <item x="0"/>
+        <item x="73"/>
+        <item x="36"/>
+        <item x="29"/>
+        <item x="67"/>
+        <item x="62"/>
+        <item x="20"/>
+        <item x="71"/>
+        <item x="52"/>
+        <item x="18"/>
+        <item x="55"/>
+        <item x="7"/>
+        <item x="44"/>
+        <item x="47"/>
+        <item x="12"/>
+        <item x="48"/>
+        <item x="38"/>
+        <item x="59"/>
+        <item x="34"/>
+        <item x="25"/>
+        <item x="45"/>
+        <item x="78"/>
+        <item x="56"/>
+        <item x="51"/>
+        <item x="27"/>
+        <item x="63"/>
+        <item x="76"/>
+        <item x="30"/>
+        <item x="40"/>
+        <item x="1"/>
+        <item x="72"/>
+        <item x="65"/>
+        <item x="28"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="29">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="23"/>
+        <item x="27"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="22"/>
+        <item x="18"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="20"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="19"/>
+        <item x="26"/>
+        <item x="12"/>
+        <item x="17"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="80">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of aantal units" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DF65FD-7D06-44A2-9C49-1EC8FE2CC597}" name="Table1" displayName="Table1" ref="A1:E80" totalsRowShown="0">
+  <autoFilter ref="A1:E80" xr:uid="{EE96D188-450B-4C77-8E6B-8E9A1E8A5045}"/>
+  <sortState ref="A2:B80">
+    <sortCondition ref="A1:A80"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CBA6EC07-85F5-40BC-9EAE-C1168F249B25}" name="aantal regels"/>
+    <tableColumn id="2" xr3:uid="{15BB084D-77F1-4437-A10F-C4B43E5CFA88}" name="aantal units"/>
+    <tableColumn id="3" xr3:uid="{A7893CFD-740F-42C9-B5D6-0CA1A00E9EA6}" name="Column1" dataDxfId="1">
+      <calculatedColumnFormula>SUM($B$2:$B2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{7275B961-1077-4C65-873A-9728D8F255D0}" name="Column2" dataDxfId="0">
+      <calculatedColumnFormula>SUM(B:B)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{86CDC80B-5587-4341-AF32-8237B94F9687}" name="Column3" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2017,12 +4357,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
@@ -2039,7 +4379,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2"/>
@@ -2048,7 +4388,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2065,7 +4405,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2080,7 +4420,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2091,7 +4431,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2104,7 +4444,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2120,18 +4460,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4614FA96-4EEE-45BE-948C-C904DD7FD400}">
   <dimension ref="C2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
@@ -2139,7 +4479,7 @@
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
@@ -2147,7 +4487,7 @@
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
@@ -2155,7 +4495,7 @@
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D5" t="s">
@@ -2163,7 +4503,7 @@
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
@@ -2176,4 +4516,2292 @@
     <ignoredError sqref="C4" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E82E09F-36F1-4314-A079-1EEEBF26E7B1}">
+  <dimension ref="A3:B83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>18</v>
+      </c>
+      <c r="B22" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>19</v>
+      </c>
+      <c r="B23" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>21</v>
+      </c>
+      <c r="B25" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>22</v>
+      </c>
+      <c r="B26" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>23</v>
+      </c>
+      <c r="B27" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>24</v>
+      </c>
+      <c r="B28" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>25</v>
+      </c>
+      <c r="B29" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>26</v>
+      </c>
+      <c r="B30" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>27</v>
+      </c>
+      <c r="B31" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>28</v>
+      </c>
+      <c r="B32" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>29</v>
+      </c>
+      <c r="B33" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>30</v>
+      </c>
+      <c r="B34" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>31</v>
+      </c>
+      <c r="B35" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>32</v>
+      </c>
+      <c r="B36" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>33</v>
+      </c>
+      <c r="B37" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>34</v>
+      </c>
+      <c r="B38" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>35</v>
+      </c>
+      <c r="B39" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>36</v>
+      </c>
+      <c r="B40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>37</v>
+      </c>
+      <c r="B41" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>38</v>
+      </c>
+      <c r="B42" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>39</v>
+      </c>
+      <c r="B43" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>40</v>
+      </c>
+      <c r="B44" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>41</v>
+      </c>
+      <c r="B45" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>44</v>
+      </c>
+      <c r="B46" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>45</v>
+      </c>
+      <c r="B47" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>46</v>
+      </c>
+      <c r="B48" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>48</v>
+      </c>
+      <c r="B50" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>63</v>
+      </c>
+      <c r="B63" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>64</v>
+      </c>
+      <c r="B64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>67</v>
+      </c>
+      <c r="B65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>68</v>
+      </c>
+      <c r="B66" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>69</v>
+      </c>
+      <c r="B67" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>81</v>
+      </c>
+      <c r="B68" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>86</v>
+      </c>
+      <c r="B69" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>92</v>
+      </c>
+      <c r="B70" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>97</v>
+      </c>
+      <c r="B71" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>105</v>
+      </c>
+      <c r="B72" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>107</v>
+      </c>
+      <c r="B73" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>112</v>
+      </c>
+      <c r="B74" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>114</v>
+      </c>
+      <c r="B75" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>149</v>
+      </c>
+      <c r="B76" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>151</v>
+      </c>
+      <c r="B77" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>182</v>
+      </c>
+      <c r="B78" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>186</v>
+      </c>
+      <c r="B79" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>217</v>
+      </c>
+      <c r="B80" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>287</v>
+      </c>
+      <c r="B81" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>358</v>
+      </c>
+      <c r="B82" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="7">
+        <v>2494</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F83ED0-7325-4272-816A-C27BD3A6A76A}">
+  <dimension ref="A1:E80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>112</v>
+      </c>
+      <c r="C2">
+        <f>SUM($B$2:$B2)</f>
+        <v>112</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D33" si="0">SUM(B:B)</f>
+        <v>2494</v>
+      </c>
+      <c r="E2" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>4.4907778668805132E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1143</v>
+      </c>
+      <c r="C3">
+        <f>SUM($B$2:$B3)</f>
+        <v>1255</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E3" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.50320769847634328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>261</v>
+      </c>
+      <c r="C4">
+        <f>SUM($B$2:$B4)</f>
+        <v>1516</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E4" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.60785886126704092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>152</v>
+      </c>
+      <c r="C5">
+        <f>SUM($B$2:$B5)</f>
+        <v>1668</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E5" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.66880513231756211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>105</v>
+      </c>
+      <c r="C6">
+        <f>SUM($B$2:$B6)</f>
+        <v>1773</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E6" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.71090617481956697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>83</v>
+      </c>
+      <c r="C7">
+        <f>SUM($B$2:$B7)</f>
+        <v>1856</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E7" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.7441860465116279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <f>SUM($B$2:$B8)</f>
+        <v>1910</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E8" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.76583801122694461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <f>SUM($B$2:$B9)</f>
+        <v>1992</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E9" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.79871692060946275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <f>SUM($B$2:$B10)</f>
+        <v>2047</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E10" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.82076984763432237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <f>SUM($B$2:$B11)</f>
+        <v>2078</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E11" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.83319967923015237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <f>SUM($B$2:$B12)</f>
+        <v>2107</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E12" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.84482758620689657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <f>SUM($B$2:$B13)</f>
+        <v>2131</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E13" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.85445068163592619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <f>SUM($B$2:$B14)</f>
+        <v>2157</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E14" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.86487570168404171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <f>SUM($B$2:$B15)</f>
+        <v>2175</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E15" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.87209302325581395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <f>SUM($B$2:$B16)</f>
+        <v>2188</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E16" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.87730553327987171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <f>SUM($B$2:$B17)</f>
+        <v>2215</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E17" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.88813151563753012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <f>SUM($B$2:$B18)</f>
+        <v>2232</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E18" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.89494787489975947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <f>SUM($B$2:$B19)</f>
+        <v>2248</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E19" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.90136327185244591</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <f>SUM($B$2:$B20)</f>
+        <v>2265</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E20" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.90817963111467526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <f>SUM($B$2:$B21)</f>
+        <v>2280</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E21" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.91419406575781881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <f>SUM($B$2:$B22)</f>
+        <v>2293</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E22" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.91940657578187646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <f>SUM($B$2:$B23)</f>
+        <v>2308</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E23" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.92542101042502001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <f>SUM($B$2:$B24)</f>
+        <v>2323</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E24" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.93143544506816356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <f>SUM($B$2:$B25)</f>
+        <v>2336</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E25" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.93664795509222132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <f>SUM($B$2:$B26)</f>
+        <v>2348</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E26" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.94145950280673618</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <f>SUM($B$2:$B27)</f>
+        <v>2358</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E27" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.94546912590216514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <f>SUM($B$2:$B28)</f>
+        <v>2367</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E28" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.94907778668805132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <f>SUM($B$2:$B29)</f>
+        <v>2373</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E29" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.95148356054530869</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <f>SUM($B$2:$B30)</f>
+        <v>2385</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E30" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.95629510825982356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <f>SUM($B$2:$B31)</f>
+        <v>2391</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E31" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.95870088211708104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <f>SUM($B$2:$B32)</f>
+        <v>2395</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E32" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.96030473135525263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <f>SUM($B$2:$B33)</f>
+        <v>2400</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>2494</v>
+      </c>
+      <c r="E33" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.96230954290296711</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <f>SUM($B$2:$B34)</f>
+        <v>2404</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D65" si="1">SUM(B:B)</f>
+        <v>2494</v>
+      </c>
+      <c r="E34" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.96391339214113869</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <f>SUM($B$2:$B35)</f>
+        <v>2409</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E35" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.96591820368885328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <f>SUM($B$2:$B36)</f>
+        <v>2412</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E36" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.96712109061748197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <f>SUM($B$2:$B37)</f>
+        <v>2418</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E37" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.96952686447473935</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <f>SUM($B$2:$B38)</f>
+        <v>2419</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E38" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.96992782678428224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <f>SUM($B$2:$B39)</f>
+        <v>2423</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E39" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.97153167602245394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <f>SUM($B$2:$B40)</f>
+        <v>2425</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E40" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.97233360064153973</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <f>SUM($B$2:$B41)</f>
+        <v>2428</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E41" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.97353648757016842</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <f>SUM($B$2:$B42)</f>
+        <v>2430</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E42" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.97433841218925421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f>SUM($B$2:$B43)</f>
+        <v>2431</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E43" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.97473937449879711</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <f>SUM($B$2:$B44)</f>
+        <v>2433</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E44" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.9755412991178829</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <f>SUM($B$2:$B45)</f>
+        <v>2436</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E45" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.97674418604651159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <f>SUM($B$2:$B46)</f>
+        <v>2440</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E46" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.97834803528468328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <f>SUM($B$2:$B47)</f>
+        <v>2442</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E47" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.97914995990376907</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <f>SUM($B$2:$B48)</f>
+        <v>2444</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E48" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.97995188452285487</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <f>SUM($B$2:$B49)</f>
+        <v>2446</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E49" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.98075380914194066</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <f>SUM($B$2:$B50)</f>
+        <v>2447</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E50" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.98115477145148355</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <f>SUM($B$2:$B51)</f>
+        <v>2448</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E51" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.98155573376102645</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <f>SUM($B$2:$B52)</f>
+        <v>2454</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E52" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.98396150761828383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <f>SUM($B$2:$B53)</f>
+        <v>2457</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E53" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.98516439454691263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <f>SUM($B$2:$B54)</f>
+        <v>2458</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E54" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.98556535685645552</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <f>SUM($B$2:$B55)</f>
+        <v>2459</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E55" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.98596631916599842</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <f>SUM($B$2:$B56)</f>
+        <v>2463</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E56" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.98757016840417</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <f>SUM($B$2:$B57)</f>
+        <v>2467</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E57" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.98917401764234159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <f>SUM($B$2:$B58)</f>
+        <v>2470</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E58" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99037690457097027</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <f>SUM($B$2:$B59)</f>
+        <v>2471</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E59" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99077786688051328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <f>SUM($B$2:$B60)</f>
+        <v>2472</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E60" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99117882919005618</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>63</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <f>SUM($B$2:$B61)</f>
+        <v>2473</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E61" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99157979149959907</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>64</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <f>SUM($B$2:$B62)</f>
+        <v>2474</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E62" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99198075380914197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>67</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <f>SUM($B$2:$B63)</f>
+        <v>2475</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E63" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99238171611868486</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>68</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <f>SUM($B$2:$B64)</f>
+        <v>2476</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E64" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99278267842822776</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>69</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <f>SUM($B$2:$B65)</f>
+        <v>2477</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>2494</v>
+      </c>
+      <c r="E65" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99318364073777066</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>81</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <f>SUM($B$2:$B66)</f>
+        <v>2478</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D80" si="2">SUM(B:B)</f>
+        <v>2494</v>
+      </c>
+      <c r="E66" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99358460304731355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>86</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <f>SUM($B$2:$B67)</f>
+        <v>2480</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="2"/>
+        <v>2494</v>
+      </c>
+      <c r="E67" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99438652766639934</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>92</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <f>SUM($B$2:$B68)</f>
+        <v>2482</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>2494</v>
+      </c>
+      <c r="E68" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99518845228548514</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>97</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <f>SUM($B$2:$B69)</f>
+        <v>2483</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>2494</v>
+      </c>
+      <c r="E69" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99558941459502803</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>105</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <f>SUM($B$2:$B70)</f>
+        <v>2484</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>2494</v>
+      </c>
+      <c r="E70" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99599037690457093</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>107</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <f>SUM($B$2:$B71)</f>
+        <v>2485</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>2494</v>
+      </c>
+      <c r="E71" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99639133921411382</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>112</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <f>SUM($B$2:$B72)</f>
+        <v>2486</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>2494</v>
+      </c>
+      <c r="E72" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99679230152365672</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>114</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <f>SUM($B$2:$B73)</f>
+        <v>2487</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>2494</v>
+      </c>
+      <c r="E73" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99719326383319973</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>149</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <f>SUM($B$2:$B74)</f>
+        <v>2488</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>2494</v>
+      </c>
+      <c r="E74" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99759422614274262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>151</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <f>SUM($B$2:$B75)</f>
+        <v>2489</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="2"/>
+        <v>2494</v>
+      </c>
+      <c r="E75" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99799518845228552</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>182</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <f>SUM($B$2:$B76)</f>
+        <v>2490</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="2"/>
+        <v>2494</v>
+      </c>
+      <c r="E76" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99839615076182842</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>186</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <f>SUM($B$2:$B77)</f>
+        <v>2491</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>2494</v>
+      </c>
+      <c r="E77" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99879711307137131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>217</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <f>SUM($B$2:$B78)</f>
+        <v>2492</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="2"/>
+        <v>2494</v>
+      </c>
+      <c r="E78" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.99919807538091421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>287</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <f>SUM($B$2:$B79)</f>
+        <v>2493</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="2"/>
+        <v>2494</v>
+      </c>
+      <c r="E79" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>0.9995990376904571</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>358</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <f>SUM($B$2:$B80)</f>
+        <v>2494</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="2"/>
+        <v>2494</v>
+      </c>
+      <c r="E80" s="10">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/verslag/Tabellen en grafieken.xlsx
+++ b/verslag/Tabellen en grafieken.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\study\sevo\verslag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DA67E898-76A4-46F6-AF6A-6AD15B579DBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DD10B447-3F27-4300-9FCE-E7D16E6F696F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="8310" activeTab="3" xr2:uid="{31142F79-084B-4CB1-B9B1-3FDBCF0D0407}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18540" windowHeight="8310" activeTab="4" xr2:uid="{31142F79-084B-4CB1-B9B1-3FDBCF0D0407}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="179017"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Aantal methodes</t>
   </si>
@@ -128,10 +128,16 @@
     <t>Column1</t>
   </si>
   <si>
-    <t>Column2</t>
+    <t>Column3</t>
   </si>
   <si>
-    <t>Column3</t>
+    <t>Totaal units</t>
+  </si>
+  <si>
+    <t>Totaal code2</t>
+  </si>
+  <si>
+    <t>Code in units</t>
   </si>
 </sst>
 </file>
@@ -200,24 +206,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3383,7 +3395,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F30583E-30C7-4229-AA28-E2B99DDB6611}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9F30583E-30C7-4229-AA28-E2B99DDB6611}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B83" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -3779,23 +3791,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DF65FD-7D06-44A2-9C49-1EC8FE2CC597}" name="Table1" displayName="Table1" ref="A1:E80" totalsRowShown="0">
-  <autoFilter ref="A1:E80" xr:uid="{EE96D188-450B-4C77-8E6B-8E9A1E8A5045}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50DF65FD-7D06-44A2-9C49-1EC8FE2CC597}" name="Table1" displayName="Table1" ref="A1:G80" totalsRowShown="0">
+  <autoFilter ref="A1:G80" xr:uid="{EE96D188-450B-4C77-8E6B-8E9A1E8A5045}"/>
   <sortState ref="A2:B80">
     <sortCondition ref="A1:A80"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CBA6EC07-85F5-40BC-9EAE-C1168F249B25}" name="aantal regels"/>
     <tableColumn id="2" xr3:uid="{15BB084D-77F1-4437-A10F-C4B43E5CFA88}" name="aantal units"/>
-    <tableColumn id="3" xr3:uid="{A7893CFD-740F-42C9-B5D6-0CA1A00E9EA6}" name="Column1" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{A7893CFD-740F-42C9-B5D6-0CA1A00E9EA6}" name="Column1" dataDxfId="3">
       <calculatedColumnFormula>SUM($B$2:$B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7275B961-1077-4C65-873A-9728D8F255D0}" name="Column2" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{7275B961-1077-4C65-873A-9728D8F255D0}" name="Totaal units" dataDxfId="2">
       <calculatedColumnFormula>SUM(B:B)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{86CDC80B-5587-4341-AF32-8237B94F9687}" name="Column3" dataCellStyle="Percent">
-      <calculatedColumnFormula>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="6" xr3:uid="{EA77F186-13AE-4E7A-A185-18DD114E1C42}" name="Code in units" dataDxfId="1">
+      <calculatedColumnFormula>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{F07F35AD-5742-4A75-B603-94575E840BC8}" name="Totaal code2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4357,12 +4373,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
@@ -4379,7 +4395,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2"/>
@@ -4388,7 +4404,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
@@ -4405,7 +4421,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -4420,7 +4436,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4431,7 +4447,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4444,7 +4460,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
+      <c r="B9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4522,7 +4538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E82E09F-36F1-4314-A079-1EEEBF26E7B1}">
   <dimension ref="A3:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
@@ -4533,7 +4549,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
@@ -4541,642 +4557,642 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>0</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>1143</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>13</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>15</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>16</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="7">
         <v>17</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="7">
         <v>18</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="7">
         <v>19</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="7">
         <v>20</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="A25" s="7">
         <v>21</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="A26" s="7">
         <v>22</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <v>23</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="7">
         <v>24</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="A29" s="7">
         <v>25</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="7">
         <v>26</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="7">
         <v>27</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="7">
         <v>28</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="7">
         <v>29</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="7">
         <v>30</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="7">
         <v>31</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="7">
         <v>32</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="7">
         <v>33</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="7">
         <v>34</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="7">
         <v>35</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="7">
         <v>36</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="7">
         <v>37</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="A42" s="7">
         <v>38</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="A43" s="7">
         <v>39</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="A44" s="7">
         <v>40</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="A45" s="7">
         <v>41</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="A46" s="7">
         <v>44</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="A47" s="7">
         <v>45</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="A48" s="7">
         <v>46</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="A49" s="7">
         <v>47</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+      <c r="A50" s="7">
         <v>48</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
+      <c r="A51" s="7">
         <v>49</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
+      <c r="A63" s="7">
         <v>63</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
+      <c r="A64" s="7">
         <v>64</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
+      <c r="A65" s="7">
         <v>67</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
+      <c r="A66" s="7">
         <v>68</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
+      <c r="A67" s="7">
         <v>69</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
+      <c r="A68" s="7">
         <v>81</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
+      <c r="A69" s="7">
         <v>86</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
+      <c r="A70" s="7">
         <v>92</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
+      <c r="A71" s="7">
         <v>97</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
+      <c r="A72" s="7">
         <v>105</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
+      <c r="A73" s="7">
         <v>107</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
+      <c r="A74" s="7">
         <v>112</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
+      <c r="A75" s="7">
         <v>114</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
+      <c r="A76" s="7">
         <v>149</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
+      <c r="A77" s="7">
         <v>151</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
+      <c r="A78" s="7">
         <v>182</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="9">
+      <c r="A79" s="7">
         <v>186</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="9">
+      <c r="A80" s="7">
         <v>217</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
+      <c r="A81" s="7">
         <v>287</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
+      <c r="A82" s="7">
         <v>358</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83" s="5">
         <v>2494</v>
       </c>
     </row>
@@ -5188,20 +5204,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F83ED0-7325-4272-816A-C27BD3A6A76A}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -5212,13 +5230,19 @@
         <v>30</v>
       </c>
       <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5233,12 +5257,17 @@
         <f t="shared" ref="D2:D33" si="0">SUM(B:B)</f>
         <v>2494</v>
       </c>
-      <c r="E2" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E2" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>4.4907778668805132E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5253,12 +5282,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E3" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E3" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.50320769847634328</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>1143</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5273,12 +5307,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E4" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E4" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.60785886126704092</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>522</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5293,12 +5332,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E5" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E5" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.66880513231756211</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>456</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5313,12 +5357,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E6" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E6" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.71090617481956697</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>420</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5333,12 +5382,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E7" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E7" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.7441860465116279</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>415</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5353,12 +5407,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E8" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E8" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.76583801122694461</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>324</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5373,12 +5432,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E9" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E9" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.79871692060946275</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>574</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5393,12 +5457,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E10" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E10" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.82076984763432237</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>440</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5413,12 +5482,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E11" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E11" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.83319967923015237</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>279</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5433,12 +5507,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E12" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E12" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.84482758620689657</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>290</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5453,12 +5532,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E13" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E13" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.85445068163592619</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>264</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5473,12 +5557,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E14" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E14" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.86487570168404171</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>312</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5493,12 +5582,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E15" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E15" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.87209302325581395</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>234</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5513,12 +5607,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E16" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E16" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.87730553327987171</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>182</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5533,12 +5632,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E17" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E17" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.88813151563753012</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>405</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5553,12 +5657,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E18" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E18" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.89494787489975947</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>272</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5573,12 +5682,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E19" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E19" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.90136327185244591</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>272</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5593,12 +5707,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E20" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E20" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.90817963111467526</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>306</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5613,12 +5732,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E21" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E21" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.91419406575781881</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>285</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5633,12 +5757,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E22" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E22" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.91940657578187646</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>260</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5653,12 +5782,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E23" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E23" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.92542101042502001</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>315</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5673,12 +5807,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E24" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E24" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.93143544506816356</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>330</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5693,12 +5832,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E25" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E25" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.93664795509222132</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>299</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5713,12 +5857,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E26" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E26" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.94145950280673618</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>288</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5733,12 +5882,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E27" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E27" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.94546912590216514</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>250</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5753,12 +5907,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E28" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E28" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.94907778668805132</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>234</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5773,12 +5932,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E29" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E29" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.95148356054530869</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>162</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5793,12 +5957,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E30" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E30" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.95629510825982356</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>336</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5813,12 +5982,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E31" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E31" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.95870088211708104</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>174</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5833,12 +6007,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E32" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E32" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.96030473135525263</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>120</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5853,12 +6032,17 @@
         <f t="shared" si="0"/>
         <v>2494</v>
       </c>
-      <c r="E33" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E33" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.96230954290296711</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>155</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5873,12 +6057,17 @@
         <f t="shared" ref="D34:D65" si="1">SUM(B:B)</f>
         <v>2494</v>
       </c>
-      <c r="E34" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E34" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.96391339214113869</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>128</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5893,12 +6082,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E35" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E35" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.96591820368885328</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>165</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5913,12 +6107,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E36" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E36" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.96712109061748197</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>102</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5933,12 +6132,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E37" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E37" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.96952686447473935</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>210</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5953,12 +6157,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E38" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E38" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.96992782678428224</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>36</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5973,12 +6182,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E39" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E39" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.97153167602245394</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>148</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5993,12 +6207,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E40" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E40" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.97233360064153973</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>76</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -6013,12 +6232,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E41" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E41" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.97353648757016842</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>117</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -6033,12 +6257,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E42" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E42" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.97433841218925421</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>80</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -6053,12 +6282,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E43" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E43" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.97473937449879711</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>41</v>
+      </c>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -6073,12 +6307,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E44" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E44" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.9755412991178829</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>88</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -6093,12 +6332,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E45" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E45" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.97674418604651159</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>135</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -6113,12 +6357,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E46" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E46" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.97834803528468328</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>184</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -6133,12 +6382,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E47" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E47" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.97914995990376907</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>94</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -6153,12 +6407,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E48" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E48" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.97995188452285487</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>96</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -6173,12 +6432,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E49" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E49" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.98075380914194066</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>98</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>51</v>
       </c>
@@ -6193,12 +6457,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E50" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E50" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.98115477145148355</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>51</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>52</v>
       </c>
@@ -6213,12 +6482,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E51" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E51" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.98155573376102645</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>52</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>53</v>
       </c>
@@ -6233,12 +6507,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E52" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E52" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.98396150761828383</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>318</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>54</v>
       </c>
@@ -6253,12 +6532,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E53" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E53" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.98516439454691263</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>162</v>
+      </c>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>55</v>
       </c>
@@ -6273,12 +6557,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E54" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E54" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.98556535685645552</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>55</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>56</v>
       </c>
@@ -6293,12 +6582,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E55" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E55" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.98596631916599842</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>56</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>57</v>
       </c>
@@ -6313,12 +6607,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E56" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E56" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.98757016840417</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>228</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>58</v>
       </c>
@@ -6333,12 +6632,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E57" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E57" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.98917401764234159</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>232</v>
+      </c>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>59</v>
       </c>
@@ -6353,12 +6657,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E58" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E58" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99037690457097027</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>177</v>
+      </c>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>60</v>
       </c>
@@ -6373,12 +6682,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E59" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E59" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99077786688051328</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>60</v>
+      </c>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>61</v>
       </c>
@@ -6393,12 +6707,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E60" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E60" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99117882919005618</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>61</v>
+      </c>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>63</v>
       </c>
@@ -6413,12 +6732,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E61" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E61" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99157979149959907</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>63</v>
+      </c>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>64</v>
       </c>
@@ -6433,12 +6757,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E62" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E62" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99198075380914197</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>64</v>
+      </c>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>67</v>
       </c>
@@ -6453,12 +6782,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E63" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E63" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99238171611868486</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>67</v>
+      </c>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>68</v>
       </c>
@@ -6473,12 +6807,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E64" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E64" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99278267842822776</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>68</v>
+      </c>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>69</v>
       </c>
@@ -6493,12 +6832,17 @@
         <f t="shared" si="1"/>
         <v>2494</v>
       </c>
-      <c r="E65" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E65" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99318364073777066</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>69</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>81</v>
       </c>
@@ -6513,12 +6857,17 @@
         <f t="shared" ref="D66:D80" si="2">SUM(B:B)</f>
         <v>2494</v>
       </c>
-      <c r="E66" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E66" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99358460304731355</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>81</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>86</v>
       </c>
@@ -6533,12 +6882,17 @@
         <f t="shared" si="2"/>
         <v>2494</v>
       </c>
-      <c r="E67" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E67" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99438652766639934</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>172</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>92</v>
       </c>
@@ -6553,12 +6907,17 @@
         <f t="shared" si="2"/>
         <v>2494</v>
       </c>
-      <c r="E68" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E68" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99518845228548514</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>184</v>
+      </c>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>97</v>
       </c>
@@ -6573,12 +6932,17 @@
         <f t="shared" si="2"/>
         <v>2494</v>
       </c>
-      <c r="E69" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E69" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99558941459502803</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>97</v>
+      </c>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>105</v>
       </c>
@@ -6593,12 +6957,17 @@
         <f t="shared" si="2"/>
         <v>2494</v>
       </c>
-      <c r="E70" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E70" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99599037690457093</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>105</v>
+      </c>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>107</v>
       </c>
@@ -6613,12 +6982,17 @@
         <f t="shared" si="2"/>
         <v>2494</v>
       </c>
-      <c r="E71" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E71" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99639133921411382</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>107</v>
+      </c>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>112</v>
       </c>
@@ -6633,12 +7007,17 @@
         <f t="shared" si="2"/>
         <v>2494</v>
       </c>
-      <c r="E72" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E72" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99679230152365672</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>112</v>
+      </c>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>114</v>
       </c>
@@ -6653,12 +7032,17 @@
         <f t="shared" si="2"/>
         <v>2494</v>
       </c>
-      <c r="E73" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E73" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99719326383319973</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>114</v>
+      </c>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>149</v>
       </c>
@@ -6673,12 +7057,17 @@
         <f t="shared" si="2"/>
         <v>2494</v>
       </c>
-      <c r="E74" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E74" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99759422614274262</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>149</v>
+      </c>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>151</v>
       </c>
@@ -6693,12 +7082,17 @@
         <f t="shared" si="2"/>
         <v>2494</v>
       </c>
-      <c r="E75" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E75" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99799518845228552</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>151</v>
+      </c>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>182</v>
       </c>
@@ -6713,12 +7107,17 @@
         <f t="shared" si="2"/>
         <v>2494</v>
       </c>
-      <c r="E76" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E76" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99839615076182842</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>182</v>
+      </c>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>186</v>
       </c>
@@ -6733,12 +7132,17 @@
         <f t="shared" si="2"/>
         <v>2494</v>
       </c>
-      <c r="E77" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E77" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99879711307137131</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>186</v>
+      </c>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>217</v>
       </c>
@@ -6753,12 +7157,17 @@
         <f t="shared" si="2"/>
         <v>2494</v>
       </c>
-      <c r="E78" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E78" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.99919807538091421</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>217</v>
+      </c>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>287</v>
       </c>
@@ -6773,12 +7182,17 @@
         <f t="shared" si="2"/>
         <v>2494</v>
       </c>
-      <c r="E79" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E79" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>0.9995990376904571</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>287</v>
+      </c>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>358</v>
       </c>
@@ -6793,10 +7207,15 @@
         <f t="shared" si="2"/>
         <v>2494</v>
       </c>
-      <c r="E80" s="10">
-        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Column2]]</f>
+      <c r="E80" s="8">
+        <f>Table1[[#This Row],[Column1]]/Table1[[#This Row],[Totaal units]]</f>
         <v>1</v>
       </c>
+      <c r="F80">
+        <f>Table1[[#This Row],[aantal units]]*Table1[[#This Row],[aantal regels]]</f>
+        <v>358</v>
+      </c>
+      <c r="G80" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
